--- a/bin/Assets/Resources/IngameData/Item.xlsx
+++ b/bin/Assets/Resources/IngameData/Item.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB684C5-AF2A-4CF2-806E-3516929D0FE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262D33DD-5FC7-456A-9848-522EB8602323}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,11 @@
   </si>
   <si>
     <t>shortsword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리에 표시될 이미지 이름
+Assets\Resources\Sprites에 위치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +499,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,7 +517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -523,7 +528,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">

--- a/bin/Assets/Resources/IngameData/Item.xlsx
+++ b/bin/Assets/Resources/IngameData/Item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262D33DD-5FC7-456A-9848-522EB8602323}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8D38D1-95D1-4407-953B-6FCD43ECA4DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,14 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>침대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>침대다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,6 +76,14 @@
   <si>
     <t>인벤토리에 표시될 이미지 이름
 Assets\Resources\Sprites에 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날카로워 보이는 칼이다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +499,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -508,55 +508,56 @@
     <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="29.375" style="5" customWidth="1"/>
     <col min="4" max="4" width="33.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.625" customWidth="1"/>
     <col min="6" max="6" width="30.375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -570,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -578,13 +579,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Assets/Resources/IngameData/Item.xlsx
+++ b/bin/Assets/Resources/IngameData/Item.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262D33DD-5FC7-456A-9848-522EB8602323}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C610761-C3EC-4F26-AD14-37B943812BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="스크립트" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
-  <si>
-    <t>더미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더미다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>침대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>침대다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +68,46 @@
   <si>
     <t>인벤토리에 표시될 이미지 이름
 Assets\Resources\Sprites에 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A의 카드키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리실 카드키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대걸레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람시계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 알람시계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,95 +520,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="33.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.3984375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.19921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.796875"/>
+    <col min="6" max="6" width="30.3984375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Assets/Resources/IngameData/Item.xlsx
+++ b/bin/Assets/Resources/IngameData/Item.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8D38D1-95D1-4407-953B-6FCD43ECA4DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EFBBF5-74F3-4C5F-B3E9-550FBEF0419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="스크립트" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,34 @@
   </si>
   <si>
     <t>날카로워 보이는 칼이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대걸레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A의 카드키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔가가 떨어져 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리실 카드키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 알람시계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람시계가 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일기장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,29 +524,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="33.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.3984375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.19921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.59765625" customWidth="1"/>
+    <col min="6" max="6" width="30.3984375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -532,7 +560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -546,7 +574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
@@ -560,7 +588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -574,7 +602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -586,6 +614,58 @@
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Assets/Resources/IngameData/Item.xlsx
+++ b/bin/Assets/Resources/IngameData/Item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8D38D1-95D1-4407-953B-6FCD43ECA4DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0222D951-9DC8-4DAD-8C17-0D789D6AE386}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,24 @@
   </si>
   <si>
     <t>날카로워 보이는 칼이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemInfoWindow에 뜰 string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날이 잘 든 단검이다
+가벼워서 쉽게 휘두를 수 있을 것 같다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미이다
+ㅁㄴㅇㄹ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemDescription</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +517,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -508,17 +526,17 @@
     <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="29.375" style="5" customWidth="1"/>
     <col min="4" max="4" width="33.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="5" max="5" width="35.5" customWidth="1"/>
     <col min="6" max="6" width="30.375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -531,8 +549,11 @@
       <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="E2" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -545,8 +566,11 @@
       <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="E3" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
@@ -559,8 +583,11 @@
       <c r="D4" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="E4" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -570,11 +597,11 @@
       <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -586,6 +613,9 @@
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Assets/Resources/IngameData/Item.xlsx
+++ b/bin/Assets/Resources/IngameData/Item.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0222D951-9DC8-4DAD-8C17-0D789D6AE386}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A52BD6-CC5F-44A4-BBA7-7D38D7CCFCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="스크립트" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,82 @@
   </si>
   <si>
     <t>itemDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손전등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A구역 카드키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대걸레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 휴게실 화장실에서 발견했다.
+기다란 막대기로 쓸 수 있을 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구소 내 비상상황을 대비해 비치된 손전등.
+상당히 오랜시간동안 쓸 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구소의 A 구역 문들을 열 수 있는 문이다.
+보안상 중요한 곳은 다른 카드키가 필요하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A구역 관리실 카드키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 구역의 관리실 문을 열 수 있는 카드키다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 알람시계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원들이 다양한 용도로 사용하는 알람시계다.
+소리가 그다지 크지 않아 방 밖으로는 새어나가지 않을 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전임 관리인의 노트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리인의 메모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현직 관리인의 일기장이다. 중요한 부분만 따로 챙겨보자.
+오늘부터 관리직을 겸임하게 됐다. 보안 절차가 상당히 융통성이 없는 것 같아 걱정이다. 안면인식은 그렇다 쳐도 평소에 비밀번호를 자주 잊어버리는데, 실수라도 하면 어쩌나 걱정이다. 별로 좋은 행동은 아니지만 내 개인 컴퓨터에 비밀번호를 백업해 둬야겠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후임 직원을 위한 몇가지 인수인계 사항이 적혀져 있다.
+1. 중앙 컴퓨터에서는 연구소 내 안전을 위한 여러 장치들을 관리할 수 있습니다. 아래의 내용을 숙지하고 보안상의 문제가 발생하지 않도록 철저히 해주시길 바랍니다.
+2. 몇 달 전부터 보안 절차가 강화되어 중요 보안 시스템에 접근하기 위해서는 안면인식 절차를 통과해야 합니다. 보안 정보 업데이트를 허가하였으니 당신의 정보를 새로 등록하여 사용하십시오.
+3. A 구역의 중요 보안 시스템은 비상상황 시 작동하는 차단벽의 개폐와 중요 보안시설인 실험체 수용소 관리가 있습니다. 각 보안 시스템에 접근하기 위해서는 안면 인식 이외에도 비밀번호를 입력해야 합니다. 비밀번호를 새롭게 업데이트하고 이것이 누설되지 않도록 주의해 주십시오.
+4. 비상사태를 대비해서 차단벽의 개폐는 추가적인 보안 절차가 있습니다. 수용소 내 실험체들의 탈출 방지를 위해 모든 실험체들이 안전하게 격리된 상황에서만 보안 절차를 통과할 수 있습니다.
+5. 중요 보안 시스템의 절차 중 하나라도 통과를 하지 못하면 소내에 큰 경보음이 울립니다. 당신에게 곤란한 상황이 생기지 않도록 조심해주시길 바랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용소 관리 매뉴얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수용소 관리 매뉴얼이다.
+"수용소 관리 매뉴얼입니다. 관리인은 항상 최신 버전 매뉴얼인지 확인하고 관리해주시길 바랍니다.
+1. 수용소를 격리하는 격리 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -233,6 +309,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,29 +593,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="33.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="35.5" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.3984375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.19921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="48.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.3984375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -553,7 +632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -570,7 +649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
@@ -587,7 +666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -601,7 +680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -616,6 +695,94 @@
       </c>
       <c r="E6" s="5" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="365.4" x14ac:dyDescent="0.4">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Assets/Resources/IngameData/Item.xlsx
+++ b/bin/Assets/Resources/IngameData/Item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8D38D1-95D1-4407-953B-6FCD43ECA4DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727E37AE-160A-4BB4-89E3-933539858C24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,11 +79,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>단검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>날카로워 보이는 칼이다</t>
+    <t>연구실1의 문을 여는 카드키다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구실1의 카드키</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,16 +496,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="5" customWidth="1"/>
     <col min="3" max="3" width="29.375" style="5" customWidth="1"/>
     <col min="4" max="4" width="33.25" style="5" customWidth="1"/>
     <col min="5" max="5" width="24.625" customWidth="1"/>
@@ -579,13 +579,140 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Assets/Resources/IngameData/Item.xlsx
+++ b/bin/Assets/Resources/IngameData/Item.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727E37AE-160A-4BB4-89E3-933539858C24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA1A023-95F9-4B8B-AEFB-4646C3FCEF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="스크립트" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,100 @@
   </si>
   <si>
     <t>연구실1의 카드키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A구역 카드키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구소의 A 구역 문들을 열 수 있는 문이다.
+보안상 중요한 곳은 다른 카드키가 필요하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손전등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구소 내 비상상황을 대비해 비치된 손전등.
+상당히 오랜시간동안 쓸 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대걸레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 휴게실 화장실에서 발견했다.
+기다란 막대기로 쓸 수 있을 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A구역 관리실 카드키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 구역의 관리실 문을 열 수 있는 카드키다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 알람시계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원들이 다양한 용도로 사용하는 알람시계다.
+소리가 그다지 크지 않아 방 밖으로는 새어나가지 않을 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전임 관리인의 노트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후임 직원을 위한 몇가지 인수인계 사항이 적혀져 있다.
+1. 중앙 컴퓨터에서는 연구소 내 안전을 위한 여러 장치들을 관리할 수 있습니다. 아래의 내용을 숙지하고 보안상의 문제가 발생하지 않도록 철저히 해주시길 바랍니다.
+2. 몇 달 전부터 보안 절차가 강화되어 중요 보안 시스템에 접근하기 위해서는 안면인식 절차를 통과해야 합니다. 보안 정보 업데이트를 허가하였으니 당신의 정보를 새로 등록하여 사용하십시오.
+3. A 구역의 중요 보안 시스템은 비상상황 시 작동하는 차단벽의 개폐와 중요 보안시설인 실험체 수용소 관리가 있습니다. 각 보안 시스템에 접근하기 위해서는 안면 인식 이외에도 비밀번호를 입력해야 합니다. 비밀번호를 새롭게 업데이트하고 이것이 누설되지 않도록 주의해 주십시오.
+4. 비상사태를 대비해서 차단벽의 개폐는 추가적인 보안 절차가 있습니다. 수용소 내 실험체들의 탈출 방지를 위해 모든 실험체들이 안전하게 격리된 상황에서만 보안 절차를 통과할 수 있습니다.
+5. 중요 보안 시스템의 절차 중 하나라도 통과를 하지 못하면 소내에 큰 경보음이 울립니다. 당신에게 곤란한 상황이 생기지 않도록 조심해주시길 바랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리인의 메모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현직 관리인의 일기장이다. 중요한 부분만 따로 챙겨보자.
+오늘부터 관리직을 겸임하게 됐다. 보안 절차가 상당히 융통성이 없는 것 같아 걱정이다. 안면인식은 그렇다 쳐도 평소에 비밀번호를 자주 잊어버리는데, 실수라도 하면 어쩌나 걱정이다. 별로 좋은 행동은 아니지만 내 개인 컴퓨터에 비밀번호를 백업해 둬야겠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용소 관리 매뉴얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수용소 관리 매뉴얼이다.
+"수용소 관리 매뉴얼입니다. 관리인은 항상 최신 버전 매뉴얼인지 확인하고 관리해주시길 바랍니다.
+1. 수용소를 격리하는 격리 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemInfoWindow에 뜰 string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미이다
+ㅁㄴㅇㄹ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날이 잘 든 단검이다
+가벼워서 쉽게 휘두를 수 있을 것 같다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -181,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -215,6 +309,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,27 +595,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="33.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.3984375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.19921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="48.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.3984375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -531,8 +628,11 @@
       <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -545,8 +645,11 @@
       <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
@@ -559,8 +662,11 @@
       <c r="D4" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -573,8 +679,11 @@
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -584,133 +693,184 @@
       <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="87" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="226.2" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>27</v>
       </c>

--- a/bin/Assets/Resources/IngameData/Item.xlsx
+++ b/bin/Assets/Resources/IngameData/Item.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA1A023-95F9-4B8B-AEFB-4646C3FCEF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55E338D-09D9-4496-8BAD-FF2E7D9893D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="스크립트" sheetId="1" r:id="rId1"/>
@@ -135,49 +135,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>관리인의 메모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현직 관리인의 일기장이다. 중요한 부분만 따로 챙겨보자.
+오늘부터 관리직을 겸임하게 됐다. 보안 절차가 상당히 융통성이 없는 것 같아 걱정이다. 안면인식은 그렇다 쳐도 평소에 비밀번호를 자주 잊어버리는데, 실수라도 하면 어쩌나 걱정이다. 별로 좋은 행동은 아니지만 내 개인 컴퓨터에 비밀번호를 백업해 둬야겠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용소 관리 매뉴얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemInfoWindow에 뜰 string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미이다
+ㅁㄴㅇㄹ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날이 잘 든 단검이다
+가벼워서 쉽게 휘두를 수 있을 것 같다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>후임 직원을 위한 몇가지 인수인계 사항이 적혀져 있다.
 1. 중앙 컴퓨터에서는 연구소 내 안전을 위한 여러 장치들을 관리할 수 있습니다. 아래의 내용을 숙지하고 보안상의 문제가 발생하지 않도록 철저히 해주시길 바랍니다.
-2. 몇 달 전부터 보안 절차가 강화되어 중요 보안 시스템에 접근하기 위해서는 안면인식 절차를 통과해야 합니다. 보안 정보 업데이트를 허가하였으니 당신의 정보를 새로 등록하여 사용하십시오.
-3. A 구역의 중요 보안 시스템은 비상상황 시 작동하는 차단벽의 개폐와 중요 보안시설인 실험체 수용소 관리가 있습니다. 각 보안 시스템에 접근하기 위해서는 안면 인식 이외에도 비밀번호를 입력해야 합니다. 비밀번호를 새롭게 업데이트하고 이것이 누설되지 않도록 주의해 주십시오.
-4. 비상사태를 대비해서 차단벽의 개폐는 추가적인 보안 절차가 있습니다. 수용소 내 실험체들의 탈출 방지를 위해 모든 실험체들이 안전하게 격리된 상황에서만 보안 절차를 통과할 수 있습니다.
+2. 보안 시스템에 접근하기 위해서는 안면인식 절차를 통과해야 합니다. 보안 정보 업데이트를 허가하였으니 당신의 정보를 새로 등록하여 사용하십시오.
+3. 건물 내 차단벽의 개폐와 수용소 잠금장치 해제는 중요 보안 사항입니다. 해당 보안 시스템에 접근하기 위해서 비밀번호 확인 절차가 존재합니다.
+4. 차단벽의 개폐는 추가적인 보안 절차가 있습니다. 실험체들의 탈출 방지를 위해 모든 실험체들이 안전하게 격리된 상황에서만 보안 절차를 통과할 수 있습니다.
 5. 중요 보안 시스템의 절차 중 하나라도 통과를 하지 못하면 소내에 큰 경보음이 울립니다. 당신에게 곤란한 상황이 생기지 않도록 조심해주시길 바랍니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관리인의 메모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현직 관리인의 일기장이다. 중요한 부분만 따로 챙겨보자.
-오늘부터 관리직을 겸임하게 됐다. 보안 절차가 상당히 융통성이 없는 것 같아 걱정이다. 안면인식은 그렇다 쳐도 평소에 비밀번호를 자주 잊어버리는데, 실수라도 하면 어쩌나 걱정이다. 별로 좋은 행동은 아니지만 내 개인 컴퓨터에 비밀번호를 백업해 둬야겠다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수용소 관리 매뉴얼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">수용소 관리 매뉴얼이다.
-"수용소 관리 매뉴얼입니다. 관리인은 항상 최신 버전 매뉴얼인지 확인하고 관리해주시길 바랍니다.
-1. 수용소를 격리하는 격리 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemInfoWindow에 뜰 string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더미이다
-ㅁㄴㅇㄹ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>날이 잘 든 단검이다
-가벼워서 쉽게 휘두를 수 있을 것 같다</t>
+    <t xml:space="preserve">수용소 관리 매뉴얼이다. 수용소 내 서랍에서 발견되었다.
+"수용소 관리 매뉴얼입니다. 관리 담당자는 항상 최신 버전 매뉴얼인지 확인 후 관리해주시길 바랍니다.
+1. 제 1 수용소는 현재 5마리의 실험체를 격리 중입니다. 현재 문 쪽 5개의 격리장치에만 실험체를 격리하고 있습니다.
+2. 격리 장치를 열기 위해서는 수용소 담당 관리자의 카드키가 필요합니다. 담당자는 해당 카드키를 일어버리지 않게 주의 해 주십시오.
+3. 보안상의 이유로 각 실험체는 정해진 격리 장치에 들어가야 합니다. 격리 장치에 각각 표시되어 있으니 다른 격리 장치에 들어가지 않도록 주의해 주십시오. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,27 +597,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.19921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.09765625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.3984375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="33.19921875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="48.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="48.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -629,10 +631,10 @@
         <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -649,7 +651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
@@ -663,10 +665,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -680,10 +682,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="52.2" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -694,10 +696,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -708,7 +710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -719,7 +721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -730,7 +732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -741,7 +743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="87" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -752,7 +754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="346.5" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -760,117 +762,117 @@
         <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="226.2" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:5" ht="264" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>27</v>
       </c>

--- a/bin/Assets/Resources/IngameData/Item.xlsx
+++ b/bin/Assets/Resources/IngameData/Item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55E338D-09D9-4496-8BAD-FF2E7D9893D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A907BF66-30A1-4686-AA35-63AB20413FF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연구실1의 문을 여는 카드키다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>연구실1의 카드키</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,11 +154,6 @@
   <si>
     <t>더미이다
 ㅁㄴㅇㄹ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>날이 잘 든 단검이다
-가벼워서 쉽게 휘두를 수 있을 것 같다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -180,6 +171,19 @@
 1. 제 1 수용소는 현재 5마리의 실험체를 격리 중입니다. 현재 문 쪽 5개의 격리장치에만 실험체를 격리하고 있습니다.
 2. 격리 장치를 열기 위해서는 수용소 담당 관리자의 카드키가 필요합니다. 담당자는 해당 카드키를 일어버리지 않게 주의 해 주십시오.
 3. 보안상의 이유로 각 실험체는 정해진 격리 장치에 들어가야 합니다. 격리 장치에 각각 표시되어 있으니 다른 격리 장치에 들어가지 않도록 주의해 주십시오. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피가 묻은 카드다
+연구실 1 이라는 라벨이 붙어있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드키다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -631,7 +635,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -665,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -682,7 +686,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -690,13 +694,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -704,10 +711,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -715,10 +722,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -726,10 +733,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -737,10 +744,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
         <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
@@ -748,10 +755,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="346.5" x14ac:dyDescent="0.3">
@@ -759,10 +766,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="115.5" x14ac:dyDescent="0.3">
@@ -770,10 +777,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="264" x14ac:dyDescent="0.3">
@@ -781,10 +788,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
